--- a/AmazonPageObjectModel/Data/CredentialSheet.xlsx
+++ b/AmazonPageObjectModel/Data/CredentialSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff2e700a1da09694/Desktop/GitConnect/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff2e700a1da09694/Desktop/GitConnect/AmazonProject/AmazonPageObjectModel/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{471075CA-0F9C-4854-B9BD-4DBD22536520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9E7401A-1F34-48F6-AC6D-E359DFA66A7D}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{471075CA-0F9C-4854-B9BD-4DBD22536520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F26F7B2-B0EA-45F0-949F-B1B55DA43281}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A27C4B49-5C0C-4BF2-B86E-C5F23488CFB3}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{A27C4B49-5C0C-4BF2-B86E-C5F23488CFB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -48,6 +37,18 @@
   </si>
   <si>
     <t>abcd@gmail.com</t>
+  </si>
+  <si>
+    <t>xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>abcd123</t>
+  </si>
+  <si>
+    <t>yxz@yahoo.com</t>
+  </si>
+  <si>
+    <t>1234ahbd</t>
   </si>
 </sst>
 </file>
@@ -92,9 +93,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -410,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6715B2-20D3-4B0D-836E-0A9A2881CEA7}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,35 +429,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>123456</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>654321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{7FE4DA04-9C49-492A-A369-00DA74463603}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{39993905-EDC9-4CB2-BE17-126C0AE46E31}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{6613366C-1D55-406A-8D96-FD2524945CE8}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{A6945B55-EAF4-4AAF-80A9-8CC54EF7744A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>